--- a/Project/解宇欣/第二阶段/case.xlsx
+++ b/Project/解宇欣/第二阶段/case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectTraining_my\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProManage-Five\Project\解宇欣\第二阶段\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E3C80-0254-485A-B287-DE49140F0010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B1B835-215E-4576-A1D5-06D039EBDDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19200" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:GM72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
